--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3383.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3383.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.317666618366887</v>
+        <v>3.786833763122559</v>
       </c>
       <c r="B1">
-        <v>2.587460636610817</v>
+        <v>4.698285579681396</v>
       </c>
       <c r="C1">
-        <v>3.428155926527026</v>
+        <v>2.137770891189575</v>
       </c>
       <c r="D1">
-        <v>4.025952120727031</v>
+        <v>1.521677136421204</v>
       </c>
       <c r="E1">
-        <v>1.591321605118898</v>
+        <v>1.304303646087646</v>
       </c>
     </row>
   </sheetData>
